--- a/data_analysis/assets/output_files/analysis_report/analysis_report.xlsx
+++ b/data_analysis/assets/output_files/analysis_report/analysis_report.xlsx
@@ -15,7 +15,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>COLLEGE OF COMPUTING SCIENCES &amp; INFORMATION TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>PROGRAM: BACHELOR OF COMPUTER APPLICATIONS</t>
+  </si>
+  <si>
+    <t>BATCH: 2021-22</t>
+  </si>
+  <si>
+    <t>SEMESTER: THIRD SEMESTER</t>
+  </si>
+  <si>
+    <t>SESSION: 2022-2023</t>
+  </si>
+  <si>
+    <t>DATE: 2024-11-10</t>
+  </si>
   <si>
     <t>TOTAL STUDENTS APPEARED</t>
   </si>
@@ -32,34 +50,31 @@
     <t>STATUS (CPI BASIS)</t>
   </si>
   <si>
+    <t>Above 75.00</t>
+  </si>
+  <si>
+    <t>69.51 - 75.00</t>
+  </si>
+  <si>
+    <t>59.51 - 69.50</t>
+  </si>
+  <si>
+    <t>49.51 - 59.50</t>
+  </si>
+  <si>
+    <t>45.00 - 49.50</t>
+  </si>
+  <si>
+    <t>Below 45.00</t>
+  </si>
+  <si>
     <t>NO. OF STUDENTS</t>
   </si>
   <si>
-    <t>Above 75.00</t>
-  </si>
-  <si>
-    <t>69.51 - 75.00</t>
-  </si>
-  <si>
-    <t>59.51 - 69.50</t>
-  </si>
-  <si>
-    <t>49.51 - 59.50</t>
-  </si>
-  <si>
-    <t>45.00 - 49.50</t>
-  </si>
-  <si>
-    <t>Below 45.00</t>
-  </si>
-  <si>
     <t>Pass Percentage</t>
   </si>
   <si>
-    <t>: 91.18%</t>
-  </si>
-  <si>
-    <t>Students with CPI Above 75</t>
+    <t>: 100.00%</t>
   </si>
   <si>
     <t>Rank</t>
@@ -80,76 +95,82 @@
     <t>CPI</t>
   </si>
   <si>
-    <t>TCA2107015</t>
-  </si>
-  <si>
-    <t>HARSH KUMAR</t>
-  </si>
-  <si>
-    <t>TCA2107037</t>
-  </si>
-  <si>
-    <t>VARUN SINGH</t>
-  </si>
-  <si>
-    <t>TCA2107030</t>
-  </si>
-  <si>
-    <t>PRANAV KUMAR RAJPUT</t>
-  </si>
-  <si>
-    <t>TCA2107019</t>
-  </si>
-  <si>
-    <t>JYOTSNA JAIN</t>
-  </si>
-  <si>
-    <t>TCA2107027</t>
-  </si>
-  <si>
-    <t>NIKHIL PARMAR</t>
-  </si>
-  <si>
-    <t>TCA2107006</t>
-  </si>
-  <si>
-    <t>ARPAN CHAUDHARY</t>
-  </si>
-  <si>
-    <t>TCA2107017</t>
-  </si>
-  <si>
-    <t>JAHANVI CHAUDHARY</t>
-  </si>
-  <si>
-    <t>TCA2107033</t>
-  </si>
-  <si>
-    <t>SHACHI SINGHAL</t>
-  </si>
-  <si>
-    <t>TCA2107011</t>
-  </si>
-  <si>
-    <t>DEEPANSHU</t>
-  </si>
-  <si>
-    <t>TCA2107038</t>
-  </si>
-  <si>
-    <t>VIRENDRA KUMAR</t>
-  </si>
-  <si>
-    <t>TCA2107012</t>
-  </si>
-  <si>
-    <t>FARHEEN SAEED</t>
-  </si>
-  <si>
-    <t>TCA2107031</t>
-  </si>
-  <si>
-    <t>PRIYANK CHAUHAN</t>
+    <t>TCA2007008</t>
+  </si>
+  <si>
+    <t>KHUSHI AGARWAL</t>
+  </si>
+  <si>
+    <t>TCA2007006</t>
+  </si>
+  <si>
+    <t>APOORV MITTAL</t>
+  </si>
+  <si>
+    <t>TCA2007022</t>
+  </si>
+  <si>
+    <t>SUNIDHI RASTOGI</t>
+  </si>
+  <si>
+    <t>TCA2007023</t>
+  </si>
+  <si>
+    <t>VINIT SAINI</t>
+  </si>
+  <si>
+    <t>TCA2007007</t>
+  </si>
+  <si>
+    <t>GINNI VARSHNEY</t>
+  </si>
+  <si>
+    <t>TCA2007001</t>
+  </si>
+  <si>
+    <t>ADARSH JAIN</t>
+  </si>
+  <si>
+    <t>TCA2007016</t>
+  </si>
+  <si>
+    <t>ROSHAN KUMAR JHA</t>
+  </si>
+  <si>
+    <t>TCA2007005</t>
+  </si>
+  <si>
+    <t>ANKIT KUMAR SINGH</t>
+  </si>
+  <si>
+    <t>TCA2007020</t>
+  </si>
+  <si>
+    <t>SHASHI RANJAN</t>
+  </si>
+  <si>
+    <t>TCA2007015</t>
+  </si>
+  <si>
+    <t>PRASHANT KUMAR YADAV</t>
+  </si>
+  <si>
+    <t>TCA2007002</t>
+  </si>
+  <si>
+    <t>ADITI</t>
+  </si>
+  <si>
+    <t>TCA2007014</t>
+  </si>
+  <si>
+    <t>NOOREEN MASOOD RAZA</t>
+  </si>
+  <si>
+    <t>TCA2007003</t>
+  </si>
+  <si>
+    <t>ADITYA AGRAWAL</t>
   </si>
 </sst>
 </file>
@@ -166,7 +187,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -175,13 +196,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,25 +211,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
+        <fgColor rgb="FFD3D3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1F497D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
+        <fgColor rgb="FFF0F0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,24 +249,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,404 +567,472 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3">
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-    </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6">
-        <v>621</v>
-      </c>
-      <c r="E3" s="6">
-        <v>700</v>
-      </c>
-      <c r="F3" s="6">
-        <v>88.62</v>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="3">
+        <v>724</v>
+      </c>
+      <c r="E3" s="3">
+        <v>800</v>
+      </c>
+      <c r="F3" s="3">
+        <v>89.76000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6">
-        <v>566</v>
-      </c>
-      <c r="E4" s="6">
-        <v>700</v>
-      </c>
-      <c r="F4" s="6">
-        <v>81.09999999999999</v>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="3">
+        <v>703</v>
+      </c>
+      <c r="E4" s="3">
+        <v>800</v>
+      </c>
+      <c r="F4" s="3">
+        <v>86.67</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="6">
-        <v>571</v>
-      </c>
-      <c r="E5" s="6">
-        <v>700</v>
-      </c>
-      <c r="F5" s="6">
-        <v>80.43000000000001</v>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3">
+        <v>687</v>
+      </c>
+      <c r="E5" s="3">
+        <v>800</v>
+      </c>
+      <c r="F5" s="3">
+        <v>84.70999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="6">
-        <v>556</v>
-      </c>
-      <c r="E6" s="6">
-        <v>700</v>
-      </c>
-      <c r="F6" s="6">
-        <v>80.33</v>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3">
+        <v>681</v>
+      </c>
+      <c r="E6" s="3">
+        <v>800</v>
+      </c>
+      <c r="F6" s="3">
+        <v>84.29000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="6">
-        <v>545</v>
-      </c>
-      <c r="E7" s="6">
-        <v>700</v>
-      </c>
-      <c r="F7" s="6">
-        <v>76.95</v>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3">
+        <v>669</v>
+      </c>
+      <c r="E7" s="3">
+        <v>800</v>
+      </c>
+      <c r="F7" s="3">
+        <v>82.14</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="6">
-        <v>545</v>
-      </c>
-      <c r="E8" s="6">
-        <v>700</v>
-      </c>
-      <c r="F8" s="6">
-        <v>76.38</v>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3">
+        <v>641</v>
+      </c>
+      <c r="E8" s="3">
+        <v>800</v>
+      </c>
+      <c r="F8" s="3">
+        <v>78.70999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="6">
-        <v>548</v>
-      </c>
-      <c r="E9" s="6">
-        <v>700</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3">
+        <v>640</v>
+      </c>
+      <c r="E9" s="3">
+        <v>800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>78.56999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3">
+        <v>641</v>
+      </c>
+      <c r="E10" s="3">
+        <v>800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>78.23999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3">
+        <v>638</v>
+      </c>
+      <c r="E11" s="3">
+        <v>800</v>
+      </c>
+      <c r="F11" s="3">
+        <v>77.86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3">
+        <v>634</v>
+      </c>
+      <c r="E12" s="3">
+        <v>800</v>
+      </c>
+      <c r="F12" s="3">
+        <v>77.56999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3">
+        <v>638</v>
+      </c>
+      <c r="E13" s="3">
+        <v>800</v>
+      </c>
+      <c r="F13" s="3">
+        <v>77.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3">
+        <v>620</v>
+      </c>
+      <c r="E14" s="3">
+        <v>800</v>
+      </c>
+      <c r="F14" s="3">
         <v>76.05</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6">
-        <v>541</v>
-      </c>
-      <c r="E10" s="6">
-        <v>700</v>
-      </c>
-      <c r="F10" s="6">
-        <v>76.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="6">
-        <v>539</v>
-      </c>
-      <c r="E11" s="6">
-        <v>700</v>
-      </c>
-      <c r="F11" s="6">
-        <v>75.86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="6">
-        <v>534</v>
-      </c>
-      <c r="E12" s="6">
-        <v>700</v>
-      </c>
-      <c r="F12" s="6">
-        <v>75.43000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="6">
-        <v>539</v>
-      </c>
-      <c r="E13" s="6">
-        <v>700</v>
-      </c>
-      <c r="F13" s="6">
-        <v>75.29000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="6">
-        <v>542</v>
-      </c>
-      <c r="E14" s="6">
-        <v>700</v>
-      </c>
-      <c r="F14" s="6">
-        <v>75.23999999999999</v>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3">
+        <v>622</v>
+      </c>
+      <c r="E15" s="3">
+        <v>800</v>
+      </c>
+      <c r="F15" s="3">
+        <v>75.81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>